--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>최유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정남호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_봉투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="D12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -740,13 +752,72 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="12:19" x14ac:dyDescent="0.45">

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,15 +86,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최유빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권보석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정남호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_봉투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강경안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_봉투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이규홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_봉투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황기택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,7 +459,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="D12:K12"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -517,6 +537,30 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -625,18 +669,42 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -644,10 +712,34 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -656,33 +748,33 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -691,68 +783,68 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
       <c r="H10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
       <c r="G11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -787,36 +879,106 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
         <v>10</v>
       </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
         <v>12</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="K13">
+      <c r="K14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
     </row>

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>위포트_봉투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최유빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위포트_파이널</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -982,7 +990,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -990,6 +1077,111 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1183,6 +1183,96 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -466,8 +466,8 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1272,6 +1272,30 @@
       <c r="C27">
         <v>2</v>
       </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1297,6 +1297,120 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>

--- a/score1.xlsx
+++ b/score1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>위포트_파이널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렛유인_파이널</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33:K33"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1411,6 +1415,144 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
